--- a/documents/Fam_Grid.xlsx
+++ b/documents/Fam_Grid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C7DBA7-4C56-4E46-87A1-A107FFE60B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC19BEC-212E-4993-A406-6D0BD7BB421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="600" windowWidth="7764" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10428" yWindow="672" windowWidth="12528" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Participant</t>
   </si>
@@ -45,6 +45,123 @@
   </si>
   <si>
     <t>Response</t>
+  </si>
+  <si>
+    <t>muñeca</t>
+  </si>
+  <si>
+    <t>traje</t>
+  </si>
+  <si>
+    <t>vaso</t>
+  </si>
+  <si>
+    <t>caracol</t>
+  </si>
+  <si>
+    <t>cazador</t>
+  </si>
+  <si>
+    <t>espalda</t>
+  </si>
+  <si>
+    <t>pintor</t>
+  </si>
+  <si>
+    <t>puente</t>
+  </si>
+  <si>
+    <t>pavo</t>
+  </si>
+  <si>
+    <t>falda</t>
+  </si>
+  <si>
+    <t>aguja</t>
+  </si>
+  <si>
+    <t>cartero</t>
+  </si>
+  <si>
+    <t>mano</t>
+  </si>
+  <si>
+    <t>conejo</t>
+  </si>
+  <si>
+    <t>granja</t>
+  </si>
+  <si>
+    <t>vaca</t>
+  </si>
+  <si>
+    <t>iglesia</t>
+  </si>
+  <si>
+    <t>regalo</t>
+  </si>
+  <si>
+    <t>oreja</t>
+  </si>
+  <si>
+    <t>fresa</t>
+  </si>
+  <si>
+    <t>cerdo</t>
+  </si>
+  <si>
+    <t>goma</t>
+  </si>
+  <si>
+    <t>bombero</t>
+  </si>
+  <si>
+    <t>taza</t>
+  </si>
+  <si>
+    <t>cuerda</t>
+  </si>
+  <si>
+    <t>manzana</t>
+  </si>
+  <si>
+    <t>guante</t>
+  </si>
+  <si>
+    <t>miel</t>
+  </si>
+  <si>
+    <t>camisa</t>
+  </si>
+  <si>
+    <t>baño</t>
+  </si>
+  <si>
+    <t>pulpo</t>
+  </si>
+  <si>
+    <t>pierna</t>
+  </si>
+  <si>
+    <t>rana</t>
+  </si>
+  <si>
+    <t>nube</t>
+  </si>
+  <si>
+    <t>toro</t>
+  </si>
+  <si>
+    <t>gafas</t>
+  </si>
+  <si>
+    <t>reina</t>
+  </si>
+  <si>
+    <t>mesa</t>
+  </si>
+  <si>
+    <t>sirena</t>
   </si>
 </sst>
 </file>
@@ -69,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -77,17 +194,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -101,11 +282,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFA34F14-72E1-48C5-9EE3-0D978641BC5C}" name="Table1" displayName="Table1" ref="A1:C41" totalsRowShown="0">
-  <autoFilter ref="A1:C41" xr:uid="{DFA34F14-72E1-48C5-9EE3-0D978641BC5C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFA34F14-72E1-48C5-9EE3-0D978641BC5C}" name="Table1" displayName="Table1" ref="A1:C40" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:C40" xr:uid="{DFA34F14-72E1-48C5-9EE3-0D978641BC5C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{93A40103-2987-4C95-BBE0-6777586D97D3}" name="Participant"/>
-    <tableColumn id="2" xr3:uid="{26104F84-F6E6-4F7C-847D-FF4167BC3B92}" name="Image"/>
+    <tableColumn id="2" xr3:uid="{26104F84-F6E6-4F7C-847D-FF4167BC3B92}" name="Image" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{20821954-F878-4EF4-9A00-5F73AE44F56C}" name="Response"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -409,28 +590,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Fam_Grid.xlsx
+++ b/documents/Fam_Grid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC19BEC-212E-4993-A406-6D0BD7BB421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1054D68B-3F92-4909-A890-FDCB0BC33C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10428" yWindow="672" windowWidth="12528" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t>Participant</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>sirena</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -245,16 +245,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -282,10 +282,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFA34F14-72E1-48C5-9EE3-0D978641BC5C}" name="Table1" displayName="Table1" ref="A1:C40" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:C40" xr:uid="{DFA34F14-72E1-48C5-9EE3-0D978641BC5C}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{93A40103-2987-4C95-BBE0-6777586D97D3}" name="Participant"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFA34F14-72E1-48C5-9EE3-0D978641BC5C}" name="Table1" displayName="Table1" ref="A1:B40" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:B40" xr:uid="{DFA34F14-72E1-48C5-9EE3-0D978641BC5C}"/>
+  <tableColumns count="2">
     <tableColumn id="2" xr3:uid="{26104F84-F6E6-4F7C-847D-FF4167BC3B92}" name="Image" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{20821954-F878-4EF4-9A00-5F73AE44F56C}" name="Response"/>
   </tableColumns>
@@ -590,223 +589,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
